--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
   <si>
     <t>Scotland</t>
   </si>
@@ -320,9 +320,6 @@
     <t>https://beta.isdscotland.org/find-publications-and-data/conditions-and-diseases/dementia/dementia-post-diagnostic-support/31-march-2020</t>
   </si>
   <si>
-    <t>3. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at 31 December 2019.</t>
-  </si>
-  <si>
     <t>-   The percentage of people estimated to be newly diagnosed with dementia who were referred for post-diagnostic support.</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>Methodology</t>
   </si>
   <si>
-    <t>Estimates of dementia incidence are from the following Scottish Government paper published in 2016:</t>
-  </si>
-  <si>
     <t>1. These tables are supplementary to the full publication report which can be found at:</t>
   </si>
   <si>
@@ -402,18 +396,6 @@
   </si>
   <si>
     <t>Source: ISD quarterly dementia post-diagnostic support dataset: Data submissions from NHS Boards as at 31 December 2019.</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard; by Health Board</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard; by Integration Joint Board</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard; by Age Group</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard; by Deprivation Quintile</t>
   </si>
   <si>
     <t>NHS Board</t>
@@ -464,9 +446,6 @@
     <t>LDP standard met + Exempt from LD standard + LDP standard not met</t>
   </si>
   <si>
-    <t>Service users whose PDS is ongoing are excluded from the calculation and therefore figures for the latest year are currently provisional subject to all service users completing their support.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. The Scottish Government published their third national dementia strategy in 2017. This included the commitment to extend and embed dementia post-diagnostic support. In order to effectively monitor the delivery of post-diagnosis support a national local delivery plan (LDP) standard was introduced for all those newly diagnosed with dementia to receive a minimum of one year’s post-diagnostic support. </t>
   </si>
   <si>
@@ -501,13 +480,37 @@
     </r>
   </si>
   <si>
-    <t>Note that these estimations are subject to the limitations detailed within the paper.</t>
+    <t xml:space="preserve">Deprivation is calculated by matching postcode to the Scottish Index of Multiple Deprivation (SIMD) quintiles. </t>
   </si>
   <si>
-    <t>Percentage of estimated number of people newly diagnosed with dementia referred for post-diagnostic support (PDS); by Health Board</t>
+    <t>3. NHS Boards provide quarterly data submissions to ISD on individuals diagnosed and referred for post-diagnostic support within their local areas and this dataset forms the basis of the LDP standard calculation. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at 31 December 2019.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprivation is calculated by matching postcode to the Scottish Index of Multiple Deprivation (SIMD) quintiles. </t>
+    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Health Board</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Integration Joint Board</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Age Group</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Deprivation Quintile</t>
+  </si>
+  <si>
+    <t>Percentage of the estimated number of people newly diagnosed with dementia referred for post-diagnostic support (PDS); by Health Board</t>
+  </si>
+  <si>
+    <t>Service users for whom it is not yet known if they have met the standard as their PDS is ongoing are excluded from the percentage figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x 100</t>
+  </si>
+  <si>
+    <t>The estimated number of people newly diagnosed with dementia is subject to the limitations detailed within the paper below published by the Scottish Government in 2016:</t>
+  </si>
+  <si>
+    <t>Estimates for calendar year 2016 have been used for 2016/17 figures and calendar year 2017 estimates for 2017/18.</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1066,6 +1069,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1081,17 +1090,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1186,7 +1192,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1347,7 +1352,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1560,7 +1564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1657,7 +1660,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1920,7 +1922,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2204,7 +2205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
@@ -2218,7 +2218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2341,7 +2340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2466,7 +2464,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2623,7 +2620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2756,7 +2752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2881,7 +2876,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3038,7 +3032,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3101,7 +3094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3154,7 +3146,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3261,7 +3252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3408,7 +3398,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3471,7 +3460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3534,7 +3522,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3641,7 +3628,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3780,7 +3766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3887,7 +3872,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4048,7 +4032,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4259,7 +4242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5130,7 +5112,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="19" width="9.85546875" style="9" customWidth="1"/>
@@ -5165,7 +5147,7 @@
     </row>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -5213,7 +5195,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -5221,7 +5203,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -5229,7 +5211,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -5237,7 +5219,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -5245,7 +5227,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -5277,7 +5259,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -5289,115 +5271,131 @@
       <c r="B18" s="96"/>
     </row>
     <row r="19" spans="2:18" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
+      <c r="B19" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="99"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
+      <c r="B22" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="96"/>
       <c r="I23" s="94"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="95" t="s">
-        <v>95</v>
-      </c>
+    <row r="24" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="95"/>
     </row>
     <row r="26" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
+      <c r="B26" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
+      <c r="B28" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -5405,7 +5403,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="95" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
@@ -5421,11 +5419,12 @@
       <c r="B45" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B28:R28"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B24:R24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" location="'Table 1'!A1" display="TABLE 1."/>
@@ -5449,7 +5448,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
@@ -5515,7 +5514,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="29" style="9" customWidth="1"/>
@@ -5561,7 +5560,7 @@
         <v>ᴾ</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -5579,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -6241,7 +6240,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="38"/>
       <c r="J22" s="39"/>
@@ -6277,7 +6276,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -6286,7 +6285,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -6295,7 +6294,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -6482,7 +6481,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="29" style="9" customWidth="1"/>
@@ -6528,7 +6527,7 @@
         <v>ᴾ</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -6546,7 +6545,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="41"/>
@@ -7999,7 +7998,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="38"/>
       <c r="J39" s="39"/>
@@ -8035,7 +8034,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J42" s="39"/>
       <c r="K42" s="9"/>
@@ -8047,7 +8046,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -8056,7 +8055,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" s="105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -8408,7 +8407,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="29" style="9" customWidth="1"/>
@@ -8477,7 +8476,7 @@
         <v>ᴾ</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -8498,7 +8497,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="41"/>
@@ -9012,7 +9011,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="27" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -9044,7 +9043,7 @@
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -9135,7 +9134,7 @@
     <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -9196,7 +9195,7 @@
     <row r="20" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -9217,7 +9216,7 @@
     <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -9238,7 +9237,7 @@
     <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -9259,7 +9258,7 @@
     <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -9609,7 +9608,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="29" style="9" customWidth="1"/>
@@ -9678,7 +9677,7 @@
         <v>ᴾ</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -9699,7 +9698,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="41"/>
@@ -10030,7 +10029,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10062,7 +10061,7 @@
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="43" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10153,7 +10152,7 @@
     <row r="14" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -10214,7 +10213,7 @@
     <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -10235,7 +10234,7 @@
     <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -10256,7 +10255,7 @@
     <row r="19" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -10277,7 +10276,7 @@
     <row r="20" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -10298,7 +10297,7 @@
     <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -10648,7 +10647,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="29" style="9" customWidth="1"/>
@@ -10706,7 +10705,7 @@
         <v>ᴾ</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>21</v>
@@ -10715,7 +10714,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
@@ -11184,7 +11183,7 @@
     <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -11205,11 +11204,11 @@
     <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="112" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="121"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -11247,7 +11246,7 @@
     <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -11267,7 +11266,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="66" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="9"/>
@@ -11278,7 +11277,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="39"/>
       <c r="K27" s="9"/>
@@ -11288,8 +11287,8 @@
       <c r="O27" s="74"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="122" t="s">
-        <v>150</v>
+      <c r="B28" s="115" t="s">
+        <v>153</v>
       </c>
       <c r="J28" s="39"/>
       <c r="K28" s="9"/>
@@ -11648,7 +11647,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="26" style="9" customWidth="1"/>
@@ -11660,9 +11659,9 @@
     <row r="1" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
     </row>
-    <row r="2" spans="1:16383" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
-        <v>114</v>
+    <row r="2" spans="1:16383" s="88" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -28051,7 +28050,7 @@
     </row>
     <row r="4" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B4" s="91" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16383" x14ac:dyDescent="0.2">
@@ -28059,17 +28058,17 @@
     </row>
     <row r="6" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B6" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B7" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B8" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16383" x14ac:dyDescent="0.2">
@@ -28077,27 +28076,27 @@
     </row>
     <row r="10" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B10" s="110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B11" s="91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B12" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B13" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B14" s="91" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.2">
@@ -28105,32 +28104,32 @@
     </row>
     <row r="16" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B16" s="110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -28158,33 +28157,35 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="109"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="109" t="s">
+        <v>151</v>
+      </c>
       <c r="K29" s="109"/>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
@@ -28192,15 +28193,15 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="109"/>
-      <c r="C30" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
+      <c r="C30" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
       <c r="J30" s="109"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
@@ -28224,7 +28225,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -30168,7 +30169,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>

--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
   <si>
     <t>Scotland</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Less than 12 months since diagnosis and PDS not yet started.</t>
   </si>
   <si>
-    <t>PDS started within 12 months and not yet ended.</t>
-  </si>
-  <si>
     <t>Methodology</t>
   </si>
   <si>
@@ -486,21 +483,6 @@
     <t>3. NHS Boards provide quarterly data submissions to ISD on individuals diagnosed and referred for post-diagnostic support within their local areas and this dataset forms the basis of the LDP standard calculation. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at 31 December 2019.</t>
   </si>
   <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Health Board</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Integration Joint Board</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Age Group</t>
-  </si>
-  <si>
-    <t>Number and percentage of people referred for dementia post-diagnostic support (PDS); by Deprivation Quintile</t>
-  </si>
-  <si>
-    <t>Percentage of the estimated number of people newly diagnosed with dementia referred for post-diagnostic support (PDS); by Health Board</t>
-  </si>
-  <si>
     <t>Service users for whom it is not yet known if they have met the standard as their PDS is ongoing are excluded from the percentage figures.</t>
   </si>
   <si>
@@ -511,6 +493,134 @@
   </si>
   <si>
     <t>Estimates for calendar year 2016 have been used for 2016/17 figures and calendar year 2017 estimates for 2017/18.</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; by Health Board</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; by Integration Joint Board</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; by Age Group</t>
+  </si>
+  <si>
+    <t>Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; by Deprivation Quintile</t>
+  </si>
+  <si>
+    <t>Number and percentage of people estimated to be newly diagnosed with dementia who were referred for post-diagnostic support; by Health Board</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tab 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by Integration Joint Board (IJB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tab 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by Health Board</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tab 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by Age Group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tab 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Deprivation Quintile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tab 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by Health Board</t>
+    </r>
+  </si>
+  <si>
+    <t>PDS started within 12 months and not yet been delivered for a minimum of 11 months.</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1264,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 1'!$K$5</c:f>
+              <c:f>'Tab 1'!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1198,7 +1308,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 1'!$J$6:$J$20</c:f>
+              <c:f>'Tab 1'!$J$8:$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1251,7 +1361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 1'!$K$6:$K$20</c:f>
+              <c:f>'Tab 1'!$K$8:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1314,7 +1424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 1'!$L$5</c:f>
+              <c:f>'Tab 1'!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1358,7 +1468,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 1'!$J$6:$J$20</c:f>
+              <c:f>'Tab 1'!$J$8:$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1411,7 +1521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 1'!$L$6:$L$20</c:f>
+              <c:f>'Tab 1'!$L$8:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1622,7 +1732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 2'!$K$5</c:f>
+              <c:f>'Tab 2'!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1666,7 +1776,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 2'!$J$6:$J$37</c:f>
+              <c:f>'Tab 2'!$J$8:$J$39</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -1770,7 +1880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 2'!$K$6:$K$37</c:f>
+              <c:f>'Tab 2'!$K$8:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1884,7 +1994,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 2'!$L$5</c:f>
+              <c:f>'Tab 2'!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1928,7 +2038,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 2'!$J$6:$J$37</c:f>
+              <c:f>'Tab 2'!$J$8:$J$39</c:f>
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
@@ -2032,7 +2142,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 2'!$L$6:$L$37</c:f>
+              <c:f>'Tab 2'!$L$8:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2302,7 +2412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 3'!$P$5</c:f>
+              <c:f>'Tab 3'!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2346,7 +2456,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 3'!$K$6:$K$14</c:f>
+              <c:f>'Tab 3'!$K$8:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2381,7 +2491,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 3'!$P$6:$P$14</c:f>
+              <c:f>'Tab 3'!$P$8:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2426,7 +2536,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 3'!$Q$5</c:f>
+              <c:f>'Tab 3'!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2470,7 +2580,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 3'!$K$6:$K$14</c:f>
+              <c:f>'Tab 3'!$K$8:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2505,7 +2615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 3'!$Q$6:$Q$14</c:f>
+              <c:f>'Tab 3'!$Q$8:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2714,7 +2824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 3'!$L$5</c:f>
+              <c:f>'Tab 3'!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2758,7 +2868,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 3'!$K$6:$K$14</c:f>
+              <c:f>'Tab 3'!$K$8:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2793,7 +2903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 3'!$L$6:$L$14</c:f>
+              <c:f>'Tab 3'!$L$8:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2838,7 +2948,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 3'!$M$5</c:f>
+              <c:f>'Tab 3'!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2882,7 +2992,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 3'!$K$6:$K$14</c:f>
+              <c:f>'Tab 3'!$K$8:$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2917,7 +3027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 3'!$M$6:$M$14</c:f>
+              <c:f>'Tab 3'!$M$8:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3108,7 +3218,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 4'!$P$5</c:f>
+              <c:f>'Tab 4'!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3152,7 +3262,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 4'!$K$6:$K$11</c:f>
+              <c:f>'Tab 4'!$K$8:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3178,7 +3288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 4'!$P$6:$P$11</c:f>
+              <c:f>'Tab 4'!$P$8:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3214,7 +3324,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 4'!$Q$5</c:f>
+              <c:f>'Tab 4'!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3258,7 +3368,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 4'!$K$6:$K$11</c:f>
+              <c:f>'Tab 4'!$K$8:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3284,7 +3394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 4'!$Q$6:$Q$11</c:f>
+              <c:f>'Tab 4'!$Q$8:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3484,7 +3594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 4'!$L$5</c:f>
+              <c:f>'Tab 4'!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3528,7 +3638,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 4'!$K$6:$K$11</c:f>
+              <c:f>'Tab 4'!$K$8:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3554,7 +3664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 4'!$L$6:$L$11</c:f>
+              <c:f>'Tab 4'!$L$8:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3590,7 +3700,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 4'!$M$5</c:f>
+              <c:f>'Tab 4'!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3634,7 +3744,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 4'!$K$6:$K$11</c:f>
+              <c:f>'Tab 4'!$K$8:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3660,7 +3770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 4'!$M$6:$M$11</c:f>
+              <c:f>'Tab 4'!$M$8:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3834,7 +3944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 5'!$H$5</c:f>
+              <c:f>'Tab 5'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3878,7 +3988,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 5'!$G$6:$G$20</c:f>
+              <c:f>'Tab 5'!$G$8:$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -3931,7 +4041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 5'!$H$6:$H$20</c:f>
+              <c:f>'Tab 5'!$H$8:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3994,7 +4104,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tab 5'!$I$5</c:f>
+              <c:f>'Tab 5'!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4038,7 +4148,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tab 5'!$G$6:$G$20</c:f>
+              <c:f>'Tab 5'!$G$8:$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4091,7 +4201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tab 5'!$I$6:$I$20</c:f>
+              <c:f>'Tab 5'!$I$8:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4275,23 +4385,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="2" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="calculation!$D$1:$D$2" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4300,13 +4410,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228598</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4334,13 +4444,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4392,13 +4502,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257173</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4426,13 +4536,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4486,13 +4596,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4539,13 +4649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4571,13 +4681,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104779</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4610,13 +4720,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4663,13 +4773,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4695,13 +4805,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>231355</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4732,13 +4842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4766,13 +4876,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1495425</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5147,7 +5257,7 @@
     </row>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -5195,7 +5305,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -5203,7 +5313,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -5211,7 +5321,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -5219,7 +5329,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -5227,7 +5337,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -5259,7 +5369,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -5272,7 +5382,7 @@
     </row>
     <row r="19" spans="2:18" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="119"/>
@@ -5293,7 +5403,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="99"/>
     </row>
@@ -5329,7 +5439,7 @@
     </row>
     <row r="24" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="121"/>
       <c r="D24" s="121"/>
@@ -5353,7 +5463,7 @@
     </row>
     <row r="26" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="120"/>
@@ -5374,7 +5484,7 @@
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="116"/>
       <c r="D28" s="116"/>
@@ -5403,7 +5513,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5620,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5534,182 +5644,110 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="str">
-        <f xml:space="preserve"> "Tab 1: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by Health Board; " &amp; A4 &amp; A5</f>
-        <v>Tab 1: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by Health Board; 2017/18ᴾ</v>
+        <f xml:space="preserve"> "Tab 1: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp; A6 &amp; A7</f>
+        <v>Tab 1: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; 2017/18ᴾ</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="B3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
-        <f xml:space="preserve"> VLOOKUP(A3, calculation!A1:B2, 2, FALSE)</f>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, calculation!A1:B2, 2, FALSE)</f>
         <v>2017/18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(A3=1,"","ᴾ")</f>
+    <row r="7" spans="1:17" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>IF(A5=1,"","ᴾ")</f>
         <v>ᴾ</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B7" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23" t="s">
+      <c r="H7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="e">
-        <f ca="1">SUM(D6:G6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="27" t="e">
-        <f t="shared" ref="D6:D20" ca="1" si="0">VLOOKUP(CONCATENATE($A$4, "hb", $B6), data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="27" t="e">
-        <f t="shared" ref="E6:E20" ca="1" si="1">VLOOKUP(CONCATENATE($A$4, "hb", $B6), data_range, 6, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="27" t="e">
-        <f t="shared" ref="F6:F20" ca="1" si="2">VLOOKUP(CONCATENATE($A$4, "hb", $B6), data_range, 8, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f t="shared" ref="G6:G20" ca="1" si="3">VLOOKUP(CONCATENATE($A$4, "hb", $B6), data_range, 7, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="28" t="e">
-        <f ca="1">(D6+E6)/(C6-F6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="30" t="e">
-        <f t="shared" ref="K6:L20" ca="1" si="4">VLOOKUP(CONCATENATE(K$5, "hb", $J6), data_range, 10, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="30" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27" t="e">
-        <f t="shared" ref="C7:C19" ca="1" si="5">SUM(D7:G7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="31" t="e">
-        <f t="shared" ref="H7:H20" ca="1" si="6">(D7+E7)/(C7-F7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="30" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="30" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" s="27" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">SUM(D8:G8)</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D8:D22" ca="1" si="0">VLOOKUP(CONCATENATE($A$6, "hb", $B8), data_range, 5, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E8:E22" ca="1" si="1">VLOOKUP(CONCATENATE($A$6, "hb", $B8), data_range, 6, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="F8:F22" ca="1" si="2">VLOOKUP(CONCATENATE($A$6, "hb", $B8), data_range, 8, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="G8:G22" ca="1" si="3">VLOOKUP(CONCATENATE($A$6, "hb", $B8), data_range, 7, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="28" t="e">
+        <f ca="1">(D8+E8)/(C8-F8)</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K8" s="30" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="K8:L22" ca="1" si="4">VLOOKUP(CONCATENATE(K$7, "hb", $J8), data_range, 10, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="L8" s="30" t="e">
@@ -5719,10 +5757,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="27" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C9:C21" ca="1" si="5">SUM(D9:G9)</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="27" t="e">
@@ -5742,12 +5780,12 @@
         <v>#REF!</v>
       </c>
       <c r="H9" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="H9:H22" ca="1" si="6">(D9+E9)/(C9-F9)</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5760,7 +5798,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C10" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5788,7 +5826,7 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="22" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K10" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5801,7 +5839,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5829,7 +5867,7 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5842,7 +5880,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5870,7 +5908,7 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5883,7 +5921,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5911,7 +5949,7 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K13" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5924,7 +5962,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5952,7 +5990,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5965,7 +6003,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -5993,7 +6031,7 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6006,7 +6044,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6034,7 +6072,7 @@
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K16" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6044,14 +6082,10 @@
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6079,7 +6113,7 @@
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K17" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6089,14 +6123,10 @@
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6124,7 +6154,7 @@
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6141,7 +6171,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C19" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6163,13 +6193,13 @@
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="33" t="e">
+      <c r="H19" s="31" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K19" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6185,36 +6215,36 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="35" t="e">
-        <f ca="1">SUM(C6:C19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="35" t="e">
+      <c r="B20" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="27" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="27" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="35" t="e">
+      <c r="E20" s="27" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="35" t="e">
+      <c r="F20" s="27" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G20" s="35" t="e">
+      <c r="G20" s="27" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H20" s="36" t="e">
+      <c r="H20" s="31" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K20" s="30" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6230,40 +6260,107 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J21" s="37"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="B21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="27" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="33" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="30" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="30" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="B22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="35" t="e">
+        <f ca="1">SUM(C8:C21)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="35" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="35" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="36" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="30" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="30" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>84</v>
+      <c r="B24" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C24" s="38"/>
       <c r="J24" s="39"/>
@@ -6275,26 +6372,31 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="C25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="105" t="s">
-        <v>118</v>
+      <c r="B27" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -6302,12 +6404,18 @@
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="105" t="s">
+        <v>117</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -6380,18 +6488,12 @@
       <c r="P40" s="32"/>
     </row>
     <row r="41" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J41" s="39"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="32"/>
     </row>
     <row r="42" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J42" s="39"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -6425,17 +6527,35 @@
       <c r="P45" s="32"/>
     </row>
     <row r="46" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J46" s="37"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J47" s="39"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J48" s="37"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" location="Methodology!A1" display="Methodology tab"/>
+    <hyperlink ref="B29" location="Methodology!A1" display="Methodology tab"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -6452,13 +6572,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6477,7 +6597,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6501,182 +6621,110 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="str">
-        <f xml:space="preserve"> "Tab 2: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by Integration Joint Board (IJB); " &amp; A4 &amp; A5</f>
-        <v>Tab 2: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by Integration Joint Board (IJB); 2017/18ᴾ</v>
+        <f xml:space="preserve"> "Tab 2: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp; A6 &amp; A7</f>
+        <v>Tab 2: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; 2017/18ᴾ</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="B3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
-        <f xml:space="preserve"> VLOOKUP(A3, calculation!A1:B2, 2, FALSE)</f>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, calculation!A1:B2, 2, FALSE)</f>
         <v>2017/18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(A3=1,"","ᴾ")</f>
+    <row r="7" spans="1:17" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>IF(A5=1,"","ᴾ")</f>
         <v>ᴾ</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B7" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42" t="s">
+      <c r="H7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="27" t="e">
-        <f ca="1">SUM(D6:G6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="27" t="e">
-        <f t="shared" ref="D6:D37" ca="1" si="0">VLOOKUP(CONCATENATE($A$4, "ijb", $B6), data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="27" t="e">
-        <f t="shared" ref="E6:E37" ca="1" si="1">VLOOKUP(CONCATENATE($A$4, "ijb", $B6), data_range, 6, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="27" t="e">
-        <f t="shared" ref="F6:F37" ca="1" si="2">VLOOKUP(CONCATENATE($A$4, "ijb", $B6), data_range, 8, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f t="shared" ref="G6:G37" ca="1" si="3">VLOOKUP(CONCATENATE($A$4, "ijb", $B6), data_range, 7, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="28" t="e">
-        <f ca="1">(D6+E6)/(C6-F6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="43" t="e">
-        <f t="shared" ref="K6:L37" ca="1" si="4">VLOOKUP(CONCATENATE(K$5, "ijb", $J6), data_range, 10, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="27" t="e">
-        <f t="shared" ref="C7:C37" ca="1" si="5">SUM(D7:G7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="31" t="e">
-        <f t="shared" ref="H7:H37" ca="1" si="6">(D7+E7)/(C7-F7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="27" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">SUM(D8:G8)</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D8:D39" ca="1" si="0">VLOOKUP(CONCATENATE($A$6, "ijb", $B8), data_range, 5, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E8:E39" ca="1" si="1">VLOOKUP(CONCATENATE($A$6, "ijb", $B8), data_range, 6, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="F8:F39" ca="1" si="2">VLOOKUP(CONCATENATE($A$6, "ijb", $B8), data_range, 8, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="G8:G39" ca="1" si="3">VLOOKUP(CONCATENATE($A$6, "ijb", $B8), data_range, 7, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="28" t="e">
+        <f ca="1">(D8+E8)/(C8-F8)</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="K8:L39" ca="1" si="4">VLOOKUP(CONCATENATE(K$7, "ijb", $J8), data_range, 10, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="L8" s="43" t="e">
@@ -6686,10 +6734,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="27" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C9:C39" ca="1" si="5">SUM(D9:G9)</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="27" t="e">
@@ -6709,12 +6757,12 @@
         <v>#REF!</v>
       </c>
       <c r="H9" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="H9:H39" ca="1" si="6">(D9+E9)/(C9-F9)</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6727,7 +6775,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6755,7 +6803,7 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6768,7 +6816,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6796,7 +6844,7 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6809,7 +6857,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6837,7 +6885,7 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6850,7 +6898,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6878,7 +6926,7 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6891,7 +6939,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6919,7 +6967,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6932,7 +6980,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -6960,7 +7008,7 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6973,7 +7021,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7001,7 +7049,7 @@
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7011,14 +7059,10 @@
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7046,7 +7090,7 @@
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7056,14 +7100,10 @@
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7091,7 +7131,7 @@
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7108,7 +7148,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7136,7 +7176,7 @@
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7151,10 +7191,9 @@
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
     </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7182,7 +7221,7 @@
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7197,10 +7236,9 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7228,7 +7266,7 @@
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7246,7 +7284,7 @@
     <row r="22" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7274,7 +7312,7 @@
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7292,7 +7330,7 @@
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7320,7 +7358,7 @@
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7338,7 +7376,7 @@
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7366,7 +7404,7 @@
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7384,7 +7422,7 @@
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7412,7 +7450,7 @@
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7430,7 +7468,7 @@
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7458,7 +7496,7 @@
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7476,7 +7514,7 @@
     <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7504,7 +7542,7 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7522,7 +7560,7 @@
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7550,7 +7588,7 @@
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7568,7 +7606,7 @@
     <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7596,7 +7634,7 @@
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7614,7 +7652,7 @@
     <row r="30" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7642,7 +7680,7 @@
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7660,7 +7698,7 @@
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7688,7 +7726,7 @@
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K31" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7706,7 +7744,7 @@
     <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7734,7 +7772,7 @@
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7752,7 +7790,7 @@
     <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7780,7 +7818,7 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K33" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7798,7 +7836,7 @@
     <row r="34" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7826,7 +7864,7 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K34" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7844,7 +7882,7 @@
     <row r="35" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7872,7 +7910,7 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K35" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7890,7 +7928,7 @@
     <row r="36" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -7918,7 +7956,7 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K36" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7935,36 +7973,36 @@
     </row>
     <row r="37" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
-      <c r="B37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="44" t="e">
+      <c r="B37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="27" t="e">
         <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="44" t="e">
+      <c r="D37" s="27" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="44" t="e">
+      <c r="E37" s="27" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="F37" s="44" t="e">
+      <c r="F37" s="27" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G37" s="44" t="e">
+      <c r="G37" s="27" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H37" s="36" t="e">
+      <c r="H37" s="31" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="I37" s="29"/>
-      <c r="J37" s="45" t="s">
-        <v>0</v>
+      <c r="J37" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="K37" s="43" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7981,47 +8019,116 @@
     </row>
     <row r="38" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47"/>
+      <c r="B38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="27" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F38" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="J38" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L38" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+    <row r="39" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="44" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="44" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="44" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="44" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="36" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L39" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
       <c r="P39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+    <row r="40" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
       <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="10" t="s">
-        <v>84</v>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C41" s="38"/>
       <c r="J41" s="39"/>
@@ -8033,9 +8140,7 @@
       <c r="P41" s="32"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="C42" s="38"/>
       <c r="J42" s="39"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -8045,55 +8150,50 @@
       <c r="P42" s="32"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="B43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="32"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="105" t="s">
-        <v>118</v>
-      </c>
+      <c r="B44" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="39"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="32"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
+      <c r="B45" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="32"/>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="14"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="105" t="s">
+        <v>117</v>
+      </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="32"/>
     </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="14"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="40"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -8349,19 +8449,49 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="14"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="32"/>
     </row>
-    <row r="76" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J76" s="48"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
+    <row r="65" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="14"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="32"/>
+    </row>
+    <row r="66" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="14"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J78" s="48"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" location="Methodology!A1" display="Methodology tab"/>
+    <hyperlink ref="B46" location="Methodology!A1" display="Methodology tab"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
@@ -8378,13 +8508,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8399,6 +8529,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29" style="9" customWidth="1"/>
+    <col min="3" max="9" width="21.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="str">
+        <f>'Contents &amp; Notes'!B1</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="str">
+        <f>"Tab 3: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp;A6&amp;A7</f>
+        <v>Tab 3: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; 2017/18ᴾ</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, calculation!A1:B2, 2, FALSE)</f>
+        <v>2017/18</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>IF(A5=1,"","ᴾ")</f>
+        <v>ᴾ</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="e">
+        <f ca="1">SUM(E8:H8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="54" t="e">
+        <f ca="1">C8/$C$17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="27" t="e">
+        <f t="shared" ref="E8:E16" ca="1" si="0">VLOOKUP(CONCATENATE($A$6, "age", $B8), data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="27" t="e">
+        <f t="shared" ref="F8:F16" ca="1" si="1">VLOOKUP(CONCATENATE($A$6, "age", $B8), data_range, 6, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="27" t="e">
+        <f t="shared" ref="G8:G16" ca="1" si="2">VLOOKUP(CONCATENATE($A$6, "age", $B8), data_range, 8, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="27" t="e">
+        <f t="shared" ref="H8:H16" ca="1" si="3">VLOOKUP(CONCATENATE($A$6, "age", $B8), data_range, 7, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="28" t="e">
+        <f ca="1">(E8+F8)/(C8-G8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="43" t="e">
+        <f t="shared" ref="L8:M16" ca="1" si="4">VLOOKUP(CONCATENATE(L$7, "age", $K8), data_range, 10, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="55" t="e">
+        <f t="shared" ref="N8:O16" ca="1" si="5">VLOOKUP(CONCATENATE(N$7, "age", $K8), data_range, 9, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O8" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="43" t="e">
+        <f ca="1">N8/SUM(N$8:N$16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="43" t="e">
+        <f ca="1">O8/SUM(O$8:O$16)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="e">
+        <f t="shared" ref="C9:C16" ca="1" si="6">SUM(E9:H9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="54" t="e">
+        <f t="shared" ref="D9:D16" ca="1" si="7">C9/$C$17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="31" t="e">
+        <f t="shared" ref="I9:I17" ca="1" si="8">(E9+F9)/(C9-G9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="43" t="e">
+        <f t="shared" ref="P9:P16" ca="1" si="9">N9/SUM(N$8:N$16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="43" t="e">
+        <f t="shared" ref="Q9:Q16" ca="1" si="10">O9/SUM(O$8:O$16)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O10" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O11" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="50"/>
+      <c r="K13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N16" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="55" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="35" t="e">
+        <f ca="1">SUM(C8:C16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="57" t="e">
+        <f ca="1">SUM(D8:D16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="35" t="e">
+        <f ca="1">SUM(E8:E16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="35" t="e">
+        <f t="shared" ref="F17:H17" ca="1" si="11">SUM(F8:F16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="35" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="35" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="36" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="32"/>
+    </row>
+    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="32"/>
+    </row>
+    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="32"/>
+    </row>
+    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="32"/>
+    </row>
+    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="32"/>
+    </row>
+    <row r="36" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="32"/>
+    </row>
+    <row r="37" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="32"/>
+    </row>
+    <row r="38" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="32"/>
+    </row>
+    <row r="39" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="32"/>
+    </row>
+    <row r="40" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="32"/>
+    </row>
+    <row r="41" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" location="Methodology!A1" display="Methodology tab"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14337" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8427,370 +9770,260 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="str">
-        <f>"Tab 3: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by age group; " &amp;A4&amp;A5</f>
-        <v>Tab 3: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by age group; 2017/18ᴾ</v>
+        <f>"Tab 4: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; "&amp;A6&amp;A7</f>
+        <v>Tab 4: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; 2017/18ᴾ</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
-        <f xml:space="preserve"> VLOOKUP(A3, calculation!A1:B2, 2, FALSE)</f>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, calculation!A1:B2, 2, FALSE)</f>
         <v>2017/18</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(A3=1,"","ᴾ")</f>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>IF(A5=1,"","ᴾ")</f>
         <v>ᴾ</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B7" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="I7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="27" t="e">
-        <f ca="1">SUM(E6:H6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="54" t="e">
-        <f ca="1">C6/$C$15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="27" t="e">
-        <f t="shared" ref="E6:E14" ca="1" si="0">VLOOKUP(CONCATENATE($A$4, "age", $B6), data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="27" t="e">
-        <f t="shared" ref="F6:F14" ca="1" si="1">VLOOKUP(CONCATENATE($A$4, "age", $B6), data_range, 6, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f t="shared" ref="G6:G14" ca="1" si="2">VLOOKUP(CONCATENATE($A$4, "age", $B6), data_range, 8, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="27" t="e">
-        <f t="shared" ref="H6:H14" ca="1" si="3">VLOOKUP(CONCATENATE($A$4, "age", $B6), data_range, 7, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="28" t="e">
-        <f ca="1">(E6+F6)/(C6-G6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="43" t="e">
-        <f t="shared" ref="L6:M14" ca="1" si="4">VLOOKUP(CONCATENATE(L$5, "age", $K6), data_range, 10, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="43" t="e">
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="27" t="e">
+        <f ca="1">SUM(E8:H8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="54" t="e">
+        <f t="shared" ref="D8:D13" ca="1" si="0">C8/$C$14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="27" t="e">
+        <f t="shared" ref="E8:E13" ca="1" si="1">VLOOKUP(CONCATENATE($A$6, "simd", $B8), data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="27" t="e">
+        <f t="shared" ref="F8:F13" ca="1" si="2">VLOOKUP(CONCATENATE($A$6, "simd", $B8), data_range, 6, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="27" t="e">
+        <f t="shared" ref="G8:G13" ca="1" si="3">VLOOKUP(CONCATENATE($A$6, "simd", $B8), data_range, 8, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="27" t="e">
+        <f t="shared" ref="H8:H13" ca="1" si="4">VLOOKUP(CONCATENATE($A$6, "simd", $B8), data_range, 7, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="62" t="e">
+        <f ca="1">(E8+F8)/(C8-G8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="43" t="e">
+        <f t="shared" ref="L8:M13" ca="1" si="5">VLOOKUP(CONCATENATE(L$7, "simd", $K8), data_range, 10, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="43" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="55" t="e">
+        <f t="shared" ref="N8:O13" ca="1" si="6">VLOOKUP(CONCATENATE(N$7, "simd", $K8), data_range, 9, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O8" s="55" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="43" t="e">
+        <f ca="1">N8/SUM(N$8:N$13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="43" t="e">
+        <f ca="1">O8/SUM(O$8:O$13)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="63">
+        <v>2</v>
+      </c>
+      <c r="C9" s="27" t="e">
+        <f t="shared" ref="C9:C13" ca="1" si="7">SUM(E9:H9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="54" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="27" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="N6" s="55" t="e">
-        <f t="shared" ref="N6:O14" ca="1" si="5">VLOOKUP(CONCATENATE(N$5, "age", $K6), data_range, 9, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="55" t="e">
+      <c r="I9" s="31" t="e">
+        <f t="shared" ref="I9:I14" ca="1" si="8">(E9+F9)/(C9-G9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="41">
+        <v>2</v>
+      </c>
+      <c r="L9" s="43" t="e">
         <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="P6" s="43" t="e">
-        <f ca="1">N6/SUM(N$6:N$14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="43" t="e">
-        <f ca="1">O6/SUM(O$6:O$14)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="27" t="e">
-        <f t="shared" ref="C7:C14" ca="1" si="6">SUM(E7:H7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="54" t="e">
-        <f t="shared" ref="D7:D14" ca="1" si="7">C7/$C$15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="27" t="e">
+      <c r="M9" s="43" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="55" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="55" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="43" t="e">
+        <f t="shared" ref="P9:Q13" ca="1" si="9">N9/SUM(N$8:N$13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="63">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="54" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="F7" s="27" t="e">
+      <c r="E10" s="27" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="27" t="e">
+      <c r="F10" s="27" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="27" t="e">
+      <c r="G10" s="27" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="31" t="e">
-        <f t="shared" ref="I7:I15" ca="1" si="8">(E7+F7)/(C7-G7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="43" t="e">
+      <c r="H10" s="27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="43" t="e">
-        <f t="shared" ref="P7:P14" ca="1" si="9">N7/SUM(N$6:N$14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="43" t="e">
-        <f t="shared" ref="Q7:Q14" ca="1" si="10">O7/SUM(O$6:O$14)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I10" s="31" t="e">
@@ -8798,23 +10031,23 @@
         <v>#REF!</v>
       </c>
       <c r="J10" s="50"/>
-      <c r="K10" s="42" t="s">
-        <v>17</v>
+      <c r="K10" s="41">
+        <v>3</v>
       </c>
       <c r="L10" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="M10" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N10" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O10" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="P10" s="43" t="e">
@@ -8822,36 +10055,36 @@
         <v>#REF!</v>
       </c>
       <c r="Q10" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>18</v>
+      <c r="B11" s="63">
+        <v>4</v>
       </c>
       <c r="C11" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="D11" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="E11" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="F11" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="G11" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="H11" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="I11" s="31" t="e">
@@ -8859,23 +10092,23 @@
         <v>#REF!</v>
       </c>
       <c r="J11" s="50"/>
-      <c r="K11" s="42" t="s">
-        <v>18</v>
+      <c r="K11" s="41">
+        <v>4</v>
       </c>
       <c r="L11" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="M11" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N11" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O11" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="P11" s="43" t="e">
@@ -8883,36 +10116,36 @@
         <v>#REF!</v>
       </c>
       <c r="Q11" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
-        <v>19</v>
+      <c r="B12" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="D12" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="E12" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="F12" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="G12" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="H12" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="I12" s="31" t="e">
@@ -8920,23 +10153,23 @@
         <v>#REF!</v>
       </c>
       <c r="J12" s="50"/>
-      <c r="K12" s="42" t="s">
-        <v>19</v>
+      <c r="K12" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="L12" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="M12" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N12" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O12" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="P12" s="43" t="e">
@@ -8944,36 +10177,36 @@
         <v>#REF!</v>
       </c>
       <c r="Q12" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>67</v>
+      <c r="B13" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="D13" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="E13" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="F13" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="G13" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="H13" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="I13" s="31" t="e">
@@ -8981,23 +10214,23 @@
         <v>#REF!</v>
       </c>
       <c r="J13" s="50"/>
-      <c r="K13" s="42" t="s">
-        <v>67</v>
+      <c r="K13" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="L13" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="M13" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N13" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O13" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="P13" s="43" t="e">
@@ -9005,108 +10238,66 @@
         <v>#REF!</v>
       </c>
       <c r="Q13" s="43" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="44" t="e">
+        <f t="shared" ref="C14:H14" ca="1" si="10">SUM(C8:C13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="57" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="27" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="31" t="e">
+      <c r="E14" s="35" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="35" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="35" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="35" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="36" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J14" s="50"/>
-      <c r="K14" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M14" s="43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N14" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="55" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" s="43" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="35" t="e">
-        <f ca="1">SUM(C6:C14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="57" t="e">
-        <f ca="1">SUM(D6:D14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="35" t="e">
-        <f ca="1">SUM(E6:E14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="35" t="e">
-        <f t="shared" ref="F15:H15" ca="1" si="11">SUM(F6:F14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="35" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="35" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="36" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="50"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
       <c r="N15" s="60"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
@@ -9114,7 +10305,9 @@
     </row>
     <row r="16" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -9133,11 +10326,9 @@
     </row>
     <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -9154,9 +10345,11 @@
     </row>
     <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -9173,8 +10366,8 @@
     </row>
     <row r="19" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="10" t="s">
-        <v>84</v>
+      <c r="B19" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -9195,7 +10388,7 @@
     <row r="20" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -9215,8 +10408,8 @@
     </row>
     <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="9" t="s">
-        <v>127</v>
+      <c r="B21" s="105" t="s">
+        <v>117</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -9236,8 +10429,8 @@
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="105" t="s">
-        <v>118</v>
+      <c r="B22" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -9257,8 +10450,8 @@
     </row>
     <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="16" t="s">
-        <v>131</v>
+      <c r="B23" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -9562,1046 +10755,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" location="Methodology!A1" display="Methodology tab"/>
-  </hyperlinks>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="14337" r:id="rId4" name="Drop Down 1">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:R37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29" style="9" customWidth="1"/>
-    <col min="3" max="9" width="21.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="16"/>
-    <col min="19" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="str">
-        <f>'Contents &amp; Notes'!B1</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="str">
-        <f>"Tab 4: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by deprivation quintile; "&amp;A4&amp;A5</f>
-        <v>Tab 4: Number and percentage of people referred for dementia post-diagnostic support (PDS) relating to the LDP standard by deprivation quintile; 2017/18ᴾ</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
-        <f xml:space="preserve"> VLOOKUP(A3, calculation!A1:B2, 2, FALSE)</f>
-        <v>2017/18</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(A3=1,"","ᴾ")</f>
-        <v>ᴾ</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="27" t="e">
-        <f ca="1">SUM(E6:H6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="54" t="e">
-        <f t="shared" ref="D6:D11" ca="1" si="0">C6/$C$12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="27" t="e">
-        <f t="shared" ref="E6:E11" ca="1" si="1">VLOOKUP(CONCATENATE($A$4, "simd", $B6), data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="27" t="e">
-        <f t="shared" ref="F6:F11" ca="1" si="2">VLOOKUP(CONCATENATE($A$4, "simd", $B6), data_range, 6, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f t="shared" ref="G6:G11" ca="1" si="3">VLOOKUP(CONCATENATE($A$4, "simd", $B6), data_range, 8, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="27" t="e">
-        <f t="shared" ref="H6:H11" ca="1" si="4">VLOOKUP(CONCATENATE($A$4, "simd", $B6), data_range, 7, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="62" t="e">
-        <f ca="1">(E6+F6)/(C6-G6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="43" t="e">
-        <f t="shared" ref="L6:M11" ca="1" si="5">VLOOKUP(CONCATENATE(L$5, "simd", $K6), data_range, 10, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" s="55" t="e">
-        <f t="shared" ref="N6:O11" ca="1" si="6">VLOOKUP(CONCATENATE(N$5, "simd", $K6), data_range, 9, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="43" t="e">
-        <f ca="1">N6/SUM(N$6:N$11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="43" t="e">
-        <f ca="1">O6/SUM(O$6:O$11)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="63">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27" t="e">
-        <f t="shared" ref="C7:C11" ca="1" si="7">SUM(E7:H7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="54" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="27" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="31" t="e">
-        <f t="shared" ref="I7:I12" ca="1" si="8">(E7+F7)/(C7-G7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="41">
-        <v>2</v>
-      </c>
-      <c r="L7" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="43" t="e">
-        <f t="shared" ref="P7:Q11" ca="1" si="9">N7/SUM(N$6:N$11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="63">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="54" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="27" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="41">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="63">
-        <v>4</v>
-      </c>
-      <c r="C9" s="27" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="54" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="27" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="41">
-        <v>4</v>
-      </c>
-      <c r="L9" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="27" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="54" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="27" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O10" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="27" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="54" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="27" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="27" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="27" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="55" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="43" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="44" t="e">
-        <f t="shared" ref="C12:H12" ca="1" si="10">SUM(C6:C11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="57" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="35" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="35" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="35" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="35" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="36" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="105" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="32"/>
-    </row>
-    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="32"/>
-    </row>
-    <row r="36" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="32"/>
-    </row>
-    <row r="37" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B19" location="Methodology!A1" display="Methodology tab"/>
+    <hyperlink ref="B21" location="Methodology!A1" display="Methodology tab"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
@@ -10618,13 +10772,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10643,7 +10797,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10661,7 +10815,7 @@
     <col min="18" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="str">
         <f>'Contents &amp; Notes'!B1</f>
         <v xml:space="preserve"> </v>
@@ -10669,8 +10823,8 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="86" t="str">
-        <f xml:space="preserve"> "Tab 5: Percentage of estimated number of people newly diagnosed with dementia referred for post-diagnostic support by Health Board; " &amp; A4 &amp; A5</f>
-        <v>Tab 5: Percentage of estimated number of people newly diagnosed with dementia referred for post-diagnostic support by Health Board; 2017/18ᴾ</v>
+        <f xml:space="preserve"> "Tab 5: Number and percentage of people estimated to be newly diagnosed with dementia who were referred for post-diagnostic support; " &amp; A6 &amp; A7</f>
+        <v>Tab 5: Number and percentage of people estimated to be newly diagnosed with dementia who were referred for post-diagnostic support; 2017/18ᴾ</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
@@ -10679,12 +10833,9 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>31</v>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="86" t="s">
+        <v>157</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
@@ -10693,135 +10844,102 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
-        <f xml:space="preserve"> VLOOKUP(A3, calculation!A1:B2, 2, FALSE)</f>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="86"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, calculation!A1:B2, 2, FALSE)</f>
         <v>2017/18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(A3=1,"","ᴾ")</f>
+    <row r="7" spans="1:17" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>IF(A5=1,"","ᴾ")</f>
         <v>ᴾ</v>
       </c>
-      <c r="B5" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B7" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23" t="s">
+      <c r="E7" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B6), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="72" t="e">
-        <f t="shared" ref="D6:D20" ca="1" si="0">VLOOKUP(CONCATENATE($A$4, "hb", $B6), data_range, 9, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="73" t="e">
-        <f ca="1" xml:space="preserve"> $D6 / $C6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G6), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G6), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G6), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G6), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B7), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="72" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="73" t="e">
-        <f t="shared" ref="E7:E20" ca="1" si="1" xml:space="preserve"> $D7 / $C7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G7), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G7), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G7), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G7), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="71" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B8), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B8), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D8" s="72" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D8:D22" ca="1" si="0">VLOOKUP(CONCATENATE($A$6, "hb", $B8), data_range, 9, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="73" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" xml:space="preserve"> $D8 / $C8</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H8" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G8), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G8), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G8), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G8), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G8), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G8), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G8), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G8), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B9), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B9), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D9" s="72" t="e">
@@ -10829,27 +10947,27 @@
         <v>#REF!</v>
       </c>
       <c r="E9" s="73" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E9:E22" ca="1" si="1" xml:space="preserve"> $D9 / $C9</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G9), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G9), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G9), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G9), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G9), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G9), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G9), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G9), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C10" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B10), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B10), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D10" s="72" t="e">
@@ -10861,23 +10979,23 @@
         <v>#REF!</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H10" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G10), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G10), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G10), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G10), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G10), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G10), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G10), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G10), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B11), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B11), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D11" s="72" t="e">
@@ -10889,23 +11007,23 @@
         <v>#REF!</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G11), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G11), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G11), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G11), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G11), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G11), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G11), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G11), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B12), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B12), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D12" s="72" t="e">
@@ -10917,23 +11035,23 @@
         <v>#REF!</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G12), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G12), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G12), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G12), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G12), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G12), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G12), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G12), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B13), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B13), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D13" s="72" t="e">
@@ -10945,23 +11063,23 @@
         <v>#REF!</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G13), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G13), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G13), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G13), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G13), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G13), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G13), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G13), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B14), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B14), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D14" s="72" t="e">
@@ -10973,23 +11091,23 @@
         <v>#REF!</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G14), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G14), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G14), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G14), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G14), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G14), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G14), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G14), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B15), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B15), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D15" s="72" t="e">
@@ -11001,23 +11119,23 @@
         <v>#REF!</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G15), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G15), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G15), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G15), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G15), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G15), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G15), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G15), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B16), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B16), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D16" s="72" t="e">
@@ -11029,23 +11147,23 @@
         <v>#REF!</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G16), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G16), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G16), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G16), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G16), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G16), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G16), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G16), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B17), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B17), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D17" s="72" t="e">
@@ -11057,23 +11175,23 @@
         <v>#REF!</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G17), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G17), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G17), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G17), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G17), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G17), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G17), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G17), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B18), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B18), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D18" s="72" t="e">
@@ -11085,27 +11203,23 @@
         <v>#REF!</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G18), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G18), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G18), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G18), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G18), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G18), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G18), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G18), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="71" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C19" s="72" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B19), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE($A$6,$B19), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" s="72" t="e">
@@ -11117,115 +11231,133 @@
         <v>#REF!</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H19" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G19), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G19), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G19), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G19), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G19), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G19), expected!$A$1:$D$76, 4, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="74"/>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G19), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G19), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="76" t="e">
-        <f>VLOOKUP(CONCATENATE($A$4,$B20), expected!$A$1:$D$76, 4, FALSE)</f>
+      <c r="B20" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="72" t="e">
+        <f>VLOOKUP(CONCATENATE($A$6,$B20), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="76" t="e">
+      <c r="D20" s="72" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="77" t="e">
+      <c r="E20" s="73" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20" s="30" t="e">
-        <f>VLOOKUP(CONCATENATE(H$5, "hb", $G20), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$5,$G20), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G20), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G20), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="30" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(I$5, "hb", $G20), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$5,$G20), expected!$A$1:$D$76, 4, FALSE)</f>
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G20), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G20), expected!$A$1:$D$76, 4, FALSE)</f>
         <v>#REF!</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="74"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="72" t="e">
+        <f>VLOOKUP(CONCATENATE($A$6,$B21), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="72" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="73" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="30" t="e">
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G21), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G21), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="30" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G21), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G21), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#REF!</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="32"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="76" t="e">
+        <f>VLOOKUP(CONCATENATE($A$6,$B22), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="76" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="77" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="e">
+        <f>VLOOKUP(CONCATENATE(H$7, "hb", $G22), data!$A$1:$I$31, 9, FALSE) / VLOOKUP(CONCATENATE(H$7,$G22), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="30" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(I$7, "hb", $G22), data_range, 9, FALSE) / VLOOKUP(CONCATENATE(I$7,$G22), expected!$A$1:$D$76, 4, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="74"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="74"/>
     </row>
     <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="64" t="s">
-        <v>84</v>
+      <c r="B24" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -11245,50 +11377,70 @@
     </row>
     <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="9" t="s">
-        <v>125</v>
+      <c r="B25" s="112" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="32"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="74"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="74"/>
+    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="115" t="s">
-        <v>153</v>
+      <c r="B28" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="J28" s="39"/>
       <c r="K28" s="9"/>
@@ -11297,16 +11449,10 @@
       <c r="N28" s="9"/>
       <c r="O28" s="74"/>
     </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="14"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="67" t="s">
+        <v>96</v>
+      </c>
       <c r="J29" s="39"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -11314,17 +11460,14 @@
       <c r="N29" s="9"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="81"/>
-      <c r="M30" s="82"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="74"/>
     </row>
@@ -11337,8 +11480,11 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="81"/>
-      <c r="M31" s="82"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="74"/>
     </row>
@@ -11506,9 +11652,6 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="81"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
       <c r="M43" s="82"/>
       <c r="N43" s="9"/>
       <c r="O43" s="74"/>
@@ -11523,14 +11666,19 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="81"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
       <c r="M44" s="82"/>
       <c r="N44" s="9"/>
       <c r="O44" s="74"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="81"/>
       <c r="J45" s="83"/>
       <c r="K45" s="82"/>
@@ -11539,22 +11687,30 @@
       <c r="N45" s="9"/>
       <c r="O45" s="74"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I46" s="84"/>
+    <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="81"/>
       <c r="J46" s="83"/>
       <c r="K46" s="82"/>
       <c r="L46" s="82"/>
       <c r="M46" s="82"/>
-      <c r="N46" s="74"/>
+      <c r="N46" s="9"/>
       <c r="O46" s="74"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="84"/>
+      <c r="I47" s="81"/>
       <c r="J47" s="83"/>
       <c r="K47" s="82"/>
       <c r="L47" s="82"/>
       <c r="M47" s="82"/>
-      <c r="N47" s="74"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="74"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -11577,19 +11733,19 @@
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I51" s="84"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
     </row>
@@ -11602,9 +11758,27 @@
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
     </row>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I53" s="84"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId2"/>
@@ -11621,13 +11795,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1495425</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11661,7 +11835,7 @@
     </row>
     <row r="2" spans="1:16383" s="88" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -28050,7 +28224,7 @@
     </row>
     <row r="4" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B4" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:16383" x14ac:dyDescent="0.2">
@@ -28096,7 +28270,7 @@
     </row>
     <row r="14" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="B14" s="91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.2">
@@ -28162,20 +28336,20 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="91" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="122"/>
@@ -28184,7 +28358,7 @@
       <c r="H29" s="122"/>
       <c r="I29" s="122"/>
       <c r="J29" s="109" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K29" s="109"/>
       <c r="L29" s="109"/>
@@ -28194,7 +28368,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="109"/>
       <c r="C30" s="123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="123"/>
       <c r="E30" s="123"/>
@@ -28225,7 +28399,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="164">
   <si>
     <t>Scotland</t>
   </si>
@@ -622,6 +622,21 @@
   <si>
     <t>PDS started within 12 months and not yet been delivered for a minimum of 11 months.</t>
   </si>
+  <si>
+    <t>For a relatively small number of individuals, multiple records were submitted and to avoid counting these service users more than once, the following rules were applied to select only one record per individual:</t>
+  </si>
+  <si>
+    <t>There also exists a Service Level Agreement between NHS Highland and NHS Greater Glasgow &amp; Clyde health boards, where some PDS is provided to Argyll &amp; Bute residents by West Dunbartonshire IJB. The support provided to these service users has been apportioned to NHS Highland in this report, as part of the LDP Standard is a population based measure, and so by not including these Argyll &amp; Bute residents this figure may be skewed.</t>
+  </si>
+  <si>
+    <t>1.    Keep record with earliest diagnosis date. If these are the same, then;</t>
+  </si>
+  <si>
+    <t>2.    Keep record with termination reason that service user has moved to a different Health Board area. If no record was terminated for this reason, then;</t>
+  </si>
+  <si>
+    <t>3.    Keep record with earliest first contact date.</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,6 +1223,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11817,7 +11835,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC32"/>
+  <dimension ref="A1:XFC38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -28402,10 +28420,105 @@
         <v>144</v>
       </c>
     </row>
+    <row r="34" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+    </row>
+    <row r="38" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="124"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>

--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="176">
   <si>
     <t>Scotland</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Methodology</t>
   </si>
   <si>
-    <t>1. These tables are supplementary to the full publication report which can be found at:</t>
-  </si>
-  <si>
     <t>The LDP standard is reported in two parts:</t>
   </si>
   <si>
@@ -376,15 +373,6 @@
   </si>
   <si>
     <t>LDP standard met + Exempt from LD standard + LDP standard not met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. The Scottish Government published their third national dementia strategy in 2017. This included the commitment to extend and embed dementia post-diagnostic support. In order to effectively monitor the delivery of post-diagnosis support a national local delivery plan (LDP) standard was introduced for all those newly diagnosed with dementia to receive a minimum of one year’s post-diagnostic support. </t>
-  </si>
-  <si>
-    <t>5. Health Board level estimates of the number of people newly diagnosed with dementia (incidence) used in Tab 5 are from the paper 'Estimated and Projected Diagnosis Rates for Dementia in Scotland:  2014-2020', published by the Scottish Government in December 2016. Note that these estimations are subject to the limitations detailed within the paper.</t>
-  </si>
-  <si>
-    <t>4. Due to the change in definitions, improvements in data quality and refinements to the method used to calculate the LDP standard, information presented in this publication is not comparable to previously published information relating to the dementia post-diagnostic support LDP standard.</t>
   </si>
   <si>
     <t xml:space="preserve">LDP standard achieved (%) =   </t>
@@ -662,6 +650,60 @@
   <si>
     <t>Tab 3: Number and percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support;</t>
   </si>
+  <si>
+    <t>Information presented in this publication is not comparable to information published for time periods prior to 2016/17.</t>
+  </si>
+  <si>
+    <t>As a result of the COVID-19 pandemic, some areas have reported difficulties in updating their data systems which are required to provide the dementia PDS dataset, however it is not anticipated that this has a large impact on the data presented in this report.</t>
+  </si>
+  <si>
+    <t>Aberdeen City Health &amp; Social Care Partnership ceased its contract with Alzheimer Scotland during 2019 and introduced an in house dementia PDS service. This transition resulted in some PDS cases being terminated by Alzheimer Scotland earlier than 12 months and therefore not meeting the LDP standard. As part of the transition, individuals were contacted to ask if they still wanted to receive PDS which was then provided by the in house service, if required. This should be taken into account when interpreting figures for 2018/19.</t>
+  </si>
+  <si>
+    <t>2018/19 figures for NHS Grampian and Aberdeen City are affected by a change in service provision of PDS within Aberdeen City during 2019. See Notes tab for further information.</t>
+  </si>
+  <si>
+    <t>2018/19 figures for NHS Grampian are affected by a change in service provision of PDS within Aberdeen City during 2019. See Notes tab for further information.</t>
+  </si>
+  <si>
+    <t>2018/19 figures are affected by a change in service provision of PDS within Aberdeen City during 2019. See Notes tab for further information.</t>
+  </si>
+  <si>
+    <t>2018/19 figures for Aberdeen City are affected by a change in service provision of PDS during 2019. See Notes tab for further information.</t>
+  </si>
+  <si>
+    <t>1/</t>
+  </si>
+  <si>
+    <t>These tables are supplementary to the full publication report which can be found at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scottish Government published their third national dementia strategy in 2017. This included the commitment to extend and embed dementia post-diagnostic support. In order to effectively monitor the delivery of post-diagnosis support a national local delivery plan (LDP) standard was introduced for all those newly diagnosed with dementia to receive a minimum of one year’s post-diagnostic support. </t>
+  </si>
+  <si>
+    <t>2/</t>
+  </si>
+  <si>
+    <t>3/</t>
+  </si>
+  <si>
+    <t>Health Board level estimates of the number of people newly diagnosed with dementia (incidence) used in Tab 5 are from the paper 'Estimated and Projected Diagnosis Rates for Dementia in Scotland:  2014-2020', published by the Scottish Government in December 2016. Note that these estimations are subject to the limitations detailed within the paper.</t>
+  </si>
+  <si>
+    <t>4/</t>
+  </si>
+  <si>
+    <t>5/</t>
+  </si>
+  <si>
+    <t>6/</t>
+  </si>
+  <si>
+    <t>7/</t>
+  </si>
+  <si>
+    <t>8/</t>
+  </si>
 </sst>
 </file>
 
@@ -672,7 +714,7 @@
     <numFmt numFmtId="165" formatCode="?0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +941,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1058,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1274,13 +1322,41 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1301,23 +1377,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1368,7 +1430,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,7 +1548,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1808,7 +1868,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1948,7 +2007,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2371,7 +2429,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2673,7 +2730,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2764,7 +2820,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,7 +2938,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3166,7 +3220,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3285,7 +3338,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3570,7 +3622,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3689,7 +3740,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3954,7 +4004,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4073,7 +4122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4340,7 +4388,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4459,7 +4506,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4779,7 +4825,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5079,7 +5124,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10317,7 +10361,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Drop Down 1" hidden="1">
+            <xdr:cNvPr id="2" name="Drop Down 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
@@ -10359,13 +10403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10559,7 +10603,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Drop Down 1" hidden="1">
+            <xdr:cNvPr id="2" name="Drop Down 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s13313"/>
@@ -10601,13 +10645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11083,13 +11127,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11115,13 +11159,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1066801</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11357,13 +11401,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11389,13 +11433,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12192,14 +12236,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:R49"/>
+  <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="17" width="9.85546875" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
@@ -12280,69 +12324,69 @@
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="112" t="s">
-        <v>154</v>
+      <c r="C15" s="103" t="s">
+        <v>150</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="112" t="s">
-        <v>155</v>
+      <c r="C16" s="103" t="s">
+        <v>151</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -12371,7 +12415,10 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>96</v>
+        <v>165</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12381,181 +12428,270 @@
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
+      <c r="B23" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>97</v>
+      <c r="C24" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+    <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="103" t="e">
-        <f>"3. NHS Boards provide quarterly data submissions to Public Health Scotland (PHS) on individuals diagnosed and referred for post-diagnostic support " &amp; "within their local areas and this dataset forms the basis of the LDP standard calculation. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at " &amp; RIGHT(calculation!$F$6, LEN(calculation!$F$6) - 1) &amp; "."</f>
+      <c r="B28" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="118" t="e">
+        <f>"NHS Boards provide quarterly data submissions to Public Health Scotland (PHS) on individuals diagnosed and referred for post-diagnostic support " &amp; "within their local areas and this dataset forms the basis of the LDP standard calculation. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at " &amp; RIGHT(calculation!$F$6, LEN(calculation!$F$6) - 1) &amp; "."</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-    </row>
-    <row r="32" spans="2:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="103" t="str">
-        <f xml:space="preserve"> "6. Figures for " &amp; calculation!F8 &amp; " are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures."</f>
-        <v>6. Figures for  are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures.</v>
-      </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+    <row r="30" spans="2:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="118" t="str">
+        <f xml:space="preserve"> "Figures for " &amp; calculation!F8 &amp; " are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures."</f>
+        <v>Figures for  are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures.</v>
+      </c>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+    </row>
+    <row r="39" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+    </row>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="112"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="112"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="112"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="30"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B28:R28"/>
+  <mergeCells count="7">
+    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="C37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="C28:R28"/>
+    <mergeCell ref="C30:R30"/>
+    <mergeCell ref="C33:R33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId1"/>
     <hyperlink ref="C9" location="'Tab 1'!A1" display="Tab 1"/>
     <hyperlink ref="C10" location="'Tab 2'!A1" display="Tab 2"/>
     <hyperlink ref="C12" location="'Tab 4'!A1" display="Tab 4"/>
@@ -13983,15 +14119,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="I1" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="111"/>
+      <c r="A1" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="I1" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -14054,7 +14190,7 @@
         <v>#N/A</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -14069,7 +14205,7 @@
         <v>#N/A</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F6" s="47"/>
       <c r="I6" s="47">
@@ -14093,7 +14229,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -14103,8 +14239,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="114" t="s">
-        <v>156</v>
+      <c r="E9" s="105" t="s">
+        <v>152</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -14122,7 +14258,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F11" s="115"/>
+      <c r="F11" s="106"/>
       <c r="I11">
         <v>10</v>
       </c>
@@ -14139,7 +14275,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="115"/>
+      <c r="F13" s="106"/>
       <c r="I13">
         <v>12</v>
       </c>
@@ -14426,7 +14562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -14455,7 +14591,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -14492,7 +14628,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -14510,10 +14646,10 @@
         <v>26</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="J7" s="120" t="e">
+      <c r="J7" s="111" t="e">
         <f>"Percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp; $A$7</f>
         <v>#N/A</v>
       </c>
@@ -15118,7 +15254,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
@@ -15127,7 +15263,7 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
@@ -15135,6 +15271,9 @@
       <c r="P30" s="21"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
@@ -15213,9 +15352,6 @@
       <c r="P43" s="21"/>
     </row>
     <row r="44" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J44" s="29"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
@@ -15258,13 +15394,22 @@
       <c r="P48" s="21"/>
     </row>
     <row r="49" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J49" s="27"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
       <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J50" s="27"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15279,7 +15424,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5" r:id="rId3" name="Drop Down 1">
+            <control shapeId="2" r:id="rId3" name="Drop Down 1">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15310,7 +15455,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -15339,7 +15484,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -15368,7 +15513,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -15386,10 +15531,10 @@
         <v>26</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="J7" s="120" t="e">
+      <c r="J7" s="111" t="e">
         <f>"Percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp; $A$7</f>
         <v>#N/A</v>
       </c>
@@ -16655,7 +16800,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
@@ -16664,7 +16809,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
@@ -16672,22 +16817,16 @@
       <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
+      <c r="B48" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
       <c r="O48" s="30"/>
       <c r="P48" s="21"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
+      <c r="B49" s="112"/>
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
       <c r="O49" s="30"/>
@@ -16958,15 +17097,30 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
       <c r="P67" s="21"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J79" s="29"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J80" s="29"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16981,7 +17135,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5" r:id="rId3" name="Drop Down 1">
+            <control shapeId="2" r:id="rId3" name="Drop Down 1">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -17034,13 +17188,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -17068,7 +17222,7 @@
         <v>NHS Ayrshire &amp; Arran</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="86" t="e">
         <f>calculation!$C2</f>
@@ -17084,7 +17238,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K5" s="99"/>
       <c r="L5" s="16"/>
@@ -17178,7 +17332,7 @@
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H9" s="48" t="str">
         <f>"Percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; " &amp; $A$5 &amp; " and Scotland"</f>
@@ -17208,7 +17362,7 @@
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" s="101">
         <f>calculation!$B2</f>
@@ -18391,7 +18545,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
@@ -18400,7 +18554,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
@@ -18408,7 +18562,9 @@
       <c r="M60" s="21"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
+      <c r="B61" s="30" t="s">
+        <v>161</v>
+      </c>
       <c r="J61" s="30"/>
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
@@ -18691,7 +18847,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -18721,7 +18877,7 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -18809,7 +18965,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -18830,10 +18986,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="120" t="e">
+      <c r="K7" s="111" t="e">
         <f>"Proportion of total referrals for dementia post-diagnostic support; "&amp;A7</f>
         <v>#N/A</v>
       </c>
@@ -18850,7 +19006,7 @@
         <v>29</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="47"/>
@@ -18893,7 +19049,7 @@
         <v>-</v>
       </c>
       <c r="J8" s="30"/>
-      <c r="K8" s="120" t="e">
+      <c r="K8" s="111" t="e">
         <f>"Percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; "&amp;A7</f>
         <v>#N/A</v>
       </c>
@@ -19345,7 +19501,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="19" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -19433,7 +19589,7 @@
         <v>#N/A</v>
       </c>
       <c r="I17" s="26" t="e">
-        <f t="shared" ref="I9:I17" ca="1" si="11">(E17+F17)/(C17-G17)</f>
+        <f t="shared" ref="I17" ca="1" si="11">(E17+F17)/(C17-G17)</f>
         <v>#N/A</v>
       </c>
       <c r="J17" s="30"/>
@@ -19643,7 +19799,7 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -19674,7 +19830,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -19705,7 +19861,7 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -19735,7 +19891,9 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="113" t="s">
+        <v>163</v>
+      </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -19753,7 +19911,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -19925,9 +20083,6 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
@@ -20029,15 +20184,36 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
       <c r="S42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20083,7 +20259,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -20113,7 +20289,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -20166,7 +20342,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -20187,10 +20363,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="51"/>
-      <c r="K7" s="120" t="e">
+      <c r="K7" s="111" t="e">
         <f>"Proportion of total referrals for dementia post-diagnostic support; "&amp;A7</f>
         <v>#N/A</v>
       </c>
@@ -20238,7 +20414,7 @@
         <v>-</v>
       </c>
       <c r="J8" s="49"/>
-      <c r="K8" s="120" t="e">
+      <c r="K8" s="111" t="e">
         <f>"Percentage of people referred for dementia post-diagnostic support who received a minimum of one year’s support; "&amp;A7</f>
         <v>#N/A</v>
       </c>
@@ -20435,7 +20611,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="19" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -20508,7 +20684,7 @@
         <v>#N/A</v>
       </c>
       <c r="I14" s="26" t="e">
-        <f t="shared" ref="I9:I14" ca="1" si="8">(E14+F14)/(C14-G14)</f>
+        <f t="shared" ref="I14" ca="1" si="8">(E14+F14)/(C14-G14)</f>
         <v>#N/A</v>
       </c>
       <c r="J14" s="49"/>
@@ -20664,7 +20840,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -20687,7 +20863,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -20710,7 +20886,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -20733,7 +20909,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -20755,7 +20931,9 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="113" t="s">
+        <v>163</v>
+      </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -20763,12 +20941,15 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -20945,9 +21126,6 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
@@ -21049,15 +21227,36 @@
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
       <c r="S40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21139,7 +21338,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="68" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="30"/>
@@ -21188,7 +21387,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>21</v>
@@ -21197,9 +21396,9 @@
         <v>22</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="120" t="e">
+        <v>105</v>
+      </c>
+      <c r="G7" s="111" t="e">
         <f>$E$7&amp;"; "&amp;$A$7</f>
         <v>#N/A</v>
       </c>
@@ -21595,7 +21794,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -21680,7 +21879,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="30"/>
@@ -21691,7 +21890,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="30"/>
@@ -21702,7 +21901,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
@@ -22082,13 +22281,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -22116,7 +22315,7 @@
         <v>NHS Ayrshire &amp; Arran</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="86" t="e">
         <f>calculation!$C2</f>
@@ -22132,7 +22331,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="100" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K5" s="99"/>
       <c r="L5" s="16"/>
@@ -22226,7 +22425,7 @@
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H9" s="48" t="str">
         <f>"Percentage of people estimated to be newly diagnosed with dementia who were referred for post-diagnostic support; " &amp; $A$5 &amp; " and Scotland"</f>
@@ -22256,7 +22455,7 @@
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" s="101">
         <f>calculation!$B2</f>
@@ -22587,13 +22786,13 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="e">
+      <c r="B22" s="120" t="e">
         <f xml:space="preserve"> "Source: Public Health Scotland quarterly dementia post-diagnostic support dataset: Data submissions from NHS Boards as at " &amp; RIGHT(calculation!$F$6, LEN(calculation!$F$6) - 1) &amp; ".  Estimated and Projected Diagnosis Rates for Dementia in Scotland paper: 2014-2020."</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -22603,8 +22802,8 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="117" t="s">
-        <v>159</v>
+      <c r="B23" s="108" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="28"/>
       <c r="G23" s="29"/>
@@ -22616,7 +22815,7 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="107" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="28"/>
@@ -22652,8 +22851,8 @@
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="118" t="s">
-        <v>121</v>
+      <c r="B27" s="109" t="s">
+        <v>117</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -22661,8 +22860,8 @@
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="119" t="s">
-        <v>131</v>
+      <c r="B28" s="110" t="s">
+        <v>127</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -22671,8 +22870,8 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
-      <c r="B29" s="118" t="s">
-        <v>158</v>
+      <c r="B29" s="109" t="s">
+        <v>154</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -39353,7 +39552,7 @@
     </row>
     <row r="4" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="B4" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:16383" x14ac:dyDescent="0.25">
@@ -39399,7 +39598,7 @@
     </row>
     <row r="14" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="B14" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.25">
@@ -39465,29 +39664,29 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="108" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
+        <v>113</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
       <c r="J29" s="74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -39496,15 +39695,15 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
-      <c r="C30" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
+      <c r="C30" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
       <c r="J30" s="74"/>
       <c r="K30" s="74"/>
       <c r="L30" s="74"/>
@@ -39528,98 +39727,98 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="107" t="s">
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
     </row>
     <row r="38" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
+      <c r="B38" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -657,9 +657,6 @@
     <t>As a result of the COVID-19 pandemic, some areas have reported difficulties in updating their data systems which are required to provide the dementia PDS dataset, however it is not anticipated that this has a large impact on the data presented in this report.</t>
   </si>
   <si>
-    <t>Aberdeen City Health &amp; Social Care Partnership ceased its contract with Alzheimer Scotland during 2019 and introduced an in house dementia PDS service. This transition resulted in some PDS cases being terminated by Alzheimer Scotland earlier than 12 months and therefore not meeting the LDP standard. As part of the transition, individuals were contacted to ask if they still wanted to receive PDS which was then provided by the in house service, if required. This should be taken into account when interpreting figures for 2018/19.</t>
-  </si>
-  <si>
     <t>2018/19 figures for NHS Grampian and Aberdeen City are affected by a change in service provision of PDS within Aberdeen City during 2019. See Notes tab for further information.</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
   </si>
   <si>
     <t>These tables are supplementary to the full publication report which can be found at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Scottish Government published their third national dementia strategy in 2017. This included the commitment to extend and embed dementia post-diagnostic support. In order to effectively monitor the delivery of post-diagnosis support a national local delivery plan (LDP) standard was introduced for all those newly diagnosed with dementia to receive a minimum of one year’s post-diagnostic support. </t>
   </si>
   <si>
     <t>2/</t>
@@ -703,6 +697,12 @@
   </si>
   <si>
     <t>8/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scottish Government published their third national dementia strategy in 2017. This included the commitment to extend and embed dementia post-diagnostic support. In order to effectively monitor the delivery of post-diagnosis support a national local delivery plan (LDP) standard was introduced for all people newly diagnosed with dementia to receive a minimum of one year’s post-diagnostic support. </t>
+  </si>
+  <si>
+    <t>Aberdeen City Health &amp; Social Care Partnership ceased its contract with Alzheimer Scotland during 2019 and introduced an in-house dementia PDS service. This transition resulted in some PDS cases being terminated by Alzheimer Scotland earlier than 12 months and therefore not meeting the LDP standard. As part of the transition, individuals were contacted to ask if they still wanted to receive PDS which was then provided by the in-house service, if required. This should be taken into account when interpreting figures for 2018/19.</t>
   </si>
 </sst>
 </file>
@@ -1350,6 +1350,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1376,9 +1379,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,6 +1430,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1548,6 +1549,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12415,10 +12417,10 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12429,26 +12431,26 @@
     </row>
     <row r="23" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="114" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
+        <v>166</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" s="11" t="s">
@@ -12486,56 +12488,56 @@
     </row>
     <row r="28" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="118" t="e">
+        <v>167</v>
+      </c>
+      <c r="C28" s="119" t="e">
         <f>"NHS Boards provide quarterly data submissions to Public Health Scotland (PHS) on individuals diagnosed and referred for post-diagnostic support " &amp; "within their local areas and this dataset forms the basis of the LDP standard calculation. These statistics are derived from quarterly post-diagnostic support data submissions by NHS Boards as at " &amp; RIGHT(calculation!$F$6, LEN(calculation!$F$6) - 1) &amp; "."</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="2:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
+        <v>169</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="126" t="s">
+      <c r="C31" s="117" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12544,31 +12546,31 @@
     </row>
     <row r="33" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="118" t="str">
+        <v>170</v>
+      </c>
+      <c r="C33" s="119" t="str">
         <f xml:space="preserve"> "Figures for " &amp; calculation!F8 &amp; " are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures."</f>
         <v>Figures for  are provisional subject to all service users completing their support. Service users for whom it is not yet known if they have met the standard are excluded from the percentage figures.</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="112" t="s">
         <v>158</v>
@@ -12579,68 +12581,68 @@
     </row>
     <row r="37" spans="2:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
+        <v>172</v>
+      </c>
+      <c r="C37" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
     </row>
     <row r="39" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
     </row>
     <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="112"/>
@@ -14119,15 +14121,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="I1" s="125" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="I1" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="125"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -15272,7 +15274,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
@@ -16818,7 +16820,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
@@ -18563,7 +18565,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J61" s="30"/>
       <c r="K61" s="30"/>
@@ -19892,7 +19894,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -20932,7 +20934,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -22786,13 +22788,13 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="120" t="e">
+      <c r="B22" s="121" t="e">
         <f xml:space="preserve"> "Source: Public Health Scotland quarterly dementia post-diagnostic support dataset: Data submissions from NHS Boards as at " &amp; RIGHT(calculation!$F$6, LEN(calculation!$F$6) - 1) &amp; ".  Estimated and Projected Diagnosis Rates for Dementia in Scotland paper: 2014-2020."</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -39676,15 +39678,15 @@
       <c r="B29" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
       <c r="J29" s="74" t="s">
         <v>116</v>
       </c>
@@ -39695,15 +39697,15 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
       <c r="J30" s="74"/>
       <c r="K30" s="74"/>
       <c r="L30" s="74"/>
@@ -39731,94 +39733,94 @@
       </c>
     </row>
     <row r="34" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
     </row>
     <row r="38" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/reference-files/excel-template.xlsx
+++ b/reference-files/excel-template.xlsx
@@ -714,7 +714,7 @@
     <numFmt numFmtId="165" formatCode="?0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +913,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -944,6 +945,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1106,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1380,6 +1388,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1430,7 +1439,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1549,7 +1557,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2431,6 +2438,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,6 +2740,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4827,6 +4836,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5126,6 +5136,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10158,7 +10169,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>511810</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12238,7 +12249,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:S47"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12252,6 +12263,12 @@
     <col min="19" max="19" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="127" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>24</v>
@@ -14578,10 +14595,14 @@
     <col min="11" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15471,10 +15492,14 @@
     <col min="11" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17182,10 +17207,14 @@
     <col min="8" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18863,10 +18892,14 @@
     <col min="12" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20275,10 +20308,14 @@
     <col min="12" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21320,10 +21357,14 @@
     <col min="11" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22275,10 +22316,14 @@
     <col min="8" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="str">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="str">
         <f>Notes!B2</f>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1" s="127" t="str">
+        <f>Notes!B1</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
